--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.25157939641148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.761201019918935</v>
+        <v>2.761201019918937</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.684542421229166</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9584890428504704</v>
+        <v>0.7865206456429331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9001797649369357</v>
+        <v>-0.7152883697762968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2600600933467758</v>
+        <v>-0.1489845419876237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1678906318598824</v>
+        <v>0.7745364170897445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.984136570975578</v>
+        <v>-2.491905499040227</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.491573374683064</v>
+        <v>-2.191925580973328</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.598560380397522</v>
+        <v>1.580728057679073</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4702749497763423</v>
+        <v>-0.5760648220903255</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3840911865370286</v>
+        <v>-0.4633081130648283</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.459949087072555</v>
+        <v>8.462006511403052</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.481072159749774</v>
+        <v>5.616887711681553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.501414183919341</v>
+        <v>5.376643259377973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.94191251633082</v>
+        <v>10.03584804057326</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.186614593244036</v>
+        <v>5.867382977864636</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.254370760492834</v>
+        <v>4.211625272781651</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.384779909317507</v>
+        <v>7.614491612556236</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.600199815274483</v>
+        <v>4.97557834965191</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.803932069539937</v>
+        <v>3.929442606236841</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6438224873847284</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7895450241047487</v>
+        <v>0.7895450241047491</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6635865951643585</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1126387368359376</v>
+        <v>0.08503143420761831</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2210118876833853</v>
+        <v>-0.2124612949308047</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08769553983875855</v>
+        <v>-0.04611607860933629</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0304779340804679</v>
+        <v>0.06366214969102298</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2643446667791012</v>
+        <v>-0.2825980171669579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2691687193748901</v>
+        <v>-0.2375462152579765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2245147683973241</v>
+        <v>0.226773891179654</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08116456097477098</v>
+        <v>-0.1085625185699331</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05309386887955028</v>
+        <v>-0.06413495618954787</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.024619715519244</v>
+        <v>3.571442587765637</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.534078955557421</v>
+        <v>2.431238489608698</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.802858796211</v>
+        <v>2.579536518392789</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.626412961445897</v>
+        <v>1.986178478548606</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.145470760403761</v>
+        <v>1.142224222381466</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.862918742835569</v>
+        <v>0.8397522387511807</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.71528640356687</v>
+        <v>1.852376628074157</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.090382791489855</v>
+        <v>1.238044883004147</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9932798420525089</v>
+        <v>0.9475610525528254</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.661406204704892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.989727329892776</v>
+        <v>6.989727329892773</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>18.75666943500953</v>
@@ -869,7 +869,7 @@
         <v>13.62683054762297</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>17.06150018209568</v>
+        <v>17.06150018209569</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>15.091969683096</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.089757131726682</v>
+        <v>2.159858433626933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6956794218487223</v>
+        <v>-1.37808645714864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.155336885831813</v>
+        <v>0.9262180017489319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.85903247618089</v>
+        <v>12.13157682741006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.017075600489109</v>
+        <v>6.373382644206235</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.65850784652401</v>
+        <v>11.51495463749731</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.521869134385771</v>
+        <v>9.947081545117955</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.601819660078909</v>
+        <v>5.256179194637618</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.924301119591695</v>
+        <v>8.253354830004772</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.17238427380298</v>
+        <v>17.9240568772729</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.1930387765618</v>
+        <v>11.57532783453523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.05325262179376</v>
+        <v>12.31362623463193</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.64088974386515</v>
+        <v>26.0412241906022</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>21.07580136271472</v>
+        <v>20.55346453767556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.69782934548974</v>
+        <v>22.95851827900014</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>19.85486047480832</v>
+        <v>20.64426270496499</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.52811221039245</v>
+        <v>15.90178616145714</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.9252004230964</v>
+        <v>17.16470147262984</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.4005035536196064</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4944726686680244</v>
+        <v>0.4944726686680242</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.9363721626789432</v>
@@ -974,7 +974,7 @@
         <v>0.6802798777548923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8517457685870868</v>
+        <v>0.8517457685870872</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.8499753882285186</v>
@@ -983,7 +983,7 @@
         <v>0.5903256453799268</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7293240448803265</v>
+        <v>0.7293240448803262</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.07172250921388908</v>
+        <v>0.1101205680370865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04245944533836057</v>
+        <v>-0.08530235263620536</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05478022280810733</v>
+        <v>0.02415002732792083</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4894766308983271</v>
+        <v>0.5221784760575345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2610124325951166</v>
+        <v>0.2663495849867702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4893170524264195</v>
+        <v>0.4610250939127171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4610528986378311</v>
+        <v>0.4764293961418761</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2584968818179244</v>
+        <v>0.2468555275068897</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4218185432138044</v>
+        <v>0.3921072005396006</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.502741047652083</v>
+        <v>1.668452604399391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.113953846692985</v>
+        <v>1.072095980046537</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.263031689200588</v>
+        <v>1.149896787444017</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.559851947044405</v>
+        <v>1.581726094595116</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.259455217777883</v>
+        <v>1.229289773850729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.404324708427711</v>
+        <v>1.418914059131008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.294269593841519</v>
+        <v>1.352645470670699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9921743990739731</v>
+        <v>1.035755954130705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.117364603696588</v>
+        <v>1.125096312506805</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.913380814281246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.710941544227637</v>
+        <v>4.71094154422764</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>12.4437794094473</v>
@@ -1083,7 +1083,7 @@
         <v>8.233217635276491</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.568099294529306</v>
+        <v>9.568099294529308</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.07919696007992</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.194549559792963</v>
+        <v>3.090918371719817</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5081045970425343</v>
+        <v>0.5264298955954168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.744699197752315</v>
+        <v>2.209143863551057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.146127157521677</v>
+        <v>8.119322705276016</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.172361630676188</v>
+        <v>3.891691971698075</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.981709409430278</v>
+        <v>6.101714059937708</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.224106776112809</v>
+        <v>7.089725650786598</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.788222445475674</v>
+        <v>3.591630116117202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.942176929279494</v>
+        <v>4.724929970803619</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.83077602560397</v>
+        <v>10.83566719395696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.05039657005786</v>
+        <v>7.265618590111582</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.217941649463494</v>
+        <v>8.112863387145037</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.5278122000524</v>
+        <v>16.97182879307134</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.41734873137175</v>
+        <v>12.68657283266345</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.71925313663299</v>
+        <v>12.88542977242521</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.41995360054871</v>
+        <v>13.03059346788869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.283410717013158</v>
+        <v>9.178346944499046</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.794517823135237</v>
+        <v>9.668962787076945</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4928085427658906</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5932446515283775</v>
+        <v>0.5932446515283778</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.9245811584247671</v>
@@ -1188,7 +1188,7 @@
         <v>0.6117335938153908</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.710916196645439</v>
+        <v>0.7109161966454393</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.9073944219931822</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3082480351057985</v>
+        <v>0.3064329434472067</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06084949553017446</v>
+        <v>0.05340596763618706</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1761162305338224</v>
+        <v>0.2121874177858271</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5205108206080526</v>
+        <v>0.5061142349136122</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2576408197619907</v>
+        <v>0.2413424694650575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3808519650622085</v>
+        <v>0.3784569853923507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5698132970485167</v>
+        <v>0.5637316452372877</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3087630894390522</v>
+        <v>0.2948818098280699</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3690702733619151</v>
+        <v>0.359917287788132</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.768832974816422</v>
+        <v>1.68444389542918</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.16027509564257</v>
+        <v>1.158760444901121</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.376132133066359</v>
+        <v>1.328890334738118</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.43314431944314</v>
+        <v>1.475600826761128</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.082637329109014</v>
+        <v>1.108772621124513</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.140128702393993</v>
+        <v>1.146834901952478</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.360884684579185</v>
+        <v>1.332119537009668</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9556658187314296</v>
+        <v>0.9340227869437154</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.009028071357448</v>
+        <v>0.9864422536443919</v>
       </c>
     </row>
     <row r="22">
